--- a/console/Networking/iaas-network/pipMixinsXlsx/pip_detail.xlsx
+++ b/console/Networking/iaas-network/pipMixinsXlsx/pip_detail.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GTCOM\JD\!!Workspace\1811-14_HB\console-EN_Output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterate="1"/>
+  <calcPr calcId="0" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -900,31 +905,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>'This IP only supports association with virtual machine or load balancer within the same availability zone. If you need to use multiple availability zone function, please directly switch to new BGP IP of JD Cloud'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">‘Conform to disassociate public IP </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">'Secondary' </t>
     </r>
   </si>
   <si>
@@ -964,15 +945,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">‘Deleted Public IP  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>‘Submitted public IP deletion task! Please refresh the page later'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">‘Disassociated public IP </t>
+    <t>Public IP deleted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This IP only supports association with Virtual Machine or Load Balancer within the same availability zone. If you need to associate with multiple availability zones  function, please directly switch to new BGP IP of JD Cloud'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">from' </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Public IP disassociated</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1016,14 +1005,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1363,16 +1355,16 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.21875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="24.1796875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="41.109375" customWidth="1"/>
-    <col min="3" max="3" width="62.5546875" customWidth="1"/>
+    <col min="2" max="2" width="41.08984375" customWidth="1"/>
+    <col min="3" max="3" width="62.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1383,7 +1375,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1394,7 +1386,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1402,10 +1394,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1416,7 +1408,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1424,10 +1416,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1435,10 +1427,10 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1449,7 +1441,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1460,7 +1452,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1471,7 +1463,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1482,7 +1474,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,7 +1485,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1504,7 +1496,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1515,7 +1507,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -1526,7 +1518,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -1537,7 +1529,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -1548,18 +1540,18 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -1567,10 +1559,10 @@
         <v>35</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -1581,7 +1573,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -1592,7 +1584,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
@@ -1603,7 +1595,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -1614,18 +1606,18 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C23" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
@@ -1633,21 +1625,21 @@
         <v>47</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C25" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
@@ -1655,10 +1647,10 @@
         <v>51</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
@@ -1666,23 +1658,24 @@
         <v>53</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>83</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <ignoredErrors>
     <ignoredError sqref="A1:B28" numberStoredAsText="1"/>
   </ignoredErrors>
